--- a/Sales_Data_S.xlsx
+++ b/Sales_Data_S.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data_S" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="sale">Sales_Data_S!$A$1:$L$101</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="150">
   <si>
     <t>Order ID</t>
   </si>
@@ -446,6 +448,27 @@
   </si>
   <si>
     <t>total sale</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Sale Amount(Rs.)</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>0&lt;=Sales&lt;1000</t>
   </si>
 </sst>
 </file>
@@ -945,10 +968,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1286,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:R8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5196,4 +5220,3867 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>VLOOKUP(F4,B1:C5,2,1)</f>
+        <v>Very Good</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CW16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="90" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:101">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45029</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45275</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45197</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45033</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45115</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44947</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45029</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45048</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45141</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45257</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45014</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45026</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45286</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45078</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45057</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45076</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45235</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45184</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45270</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45220</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45118</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45203</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45087</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45240</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44948</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45179</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45162</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45271</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44975</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>44985</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>45096</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>45114</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>45197</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>45116</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>45101</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>44977</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>45290</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>44981</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>45170</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>45246</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>45057</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>45233</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>45061</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>44947</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>45255</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>45093</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>45200</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>45015</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>45242</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>44940</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>45168</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>45191</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>45272</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>44979</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>45266</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>45018</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>45190</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>44961</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>45132</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>45007</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>44976</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>45286</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>44928</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>44980</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>45032</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>45186</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>45236</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>45117</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>45144</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>44970</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>45088</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>45128</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>45196</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>45277</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>45230</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>45197</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>45141</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>45178</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>45116</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>45222</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>45139</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>45134</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>45163</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>45264</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>44979</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>45206</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>45143</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>45178</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>45114</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>44967</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>45083</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>44941</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>45227</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>44991</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>45271</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>45253</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>44935</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>45270</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>15</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>16</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>52</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>40</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>40</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>48</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>40</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>52</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>52</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>9</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
+      </c>
+      <c r="AF7">
+        <v>7</v>
+      </c>
+      <c r="AG7">
+        <v>6</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>3</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <v>7</v>
+      </c>
+      <c r="AN7">
+        <v>5</v>
+      </c>
+      <c r="AO7">
+        <v>4</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AS7">
+        <v>2</v>
+      </c>
+      <c r="AT7">
+        <v>2</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7">
+        <v>7</v>
+      </c>
+      <c r="AX7">
+        <v>3</v>
+      </c>
+      <c r="AY7">
+        <v>4</v>
+      </c>
+      <c r="AZ7">
+        <v>7</v>
+      </c>
+      <c r="BA7">
+        <v>5</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>5</v>
+      </c>
+      <c r="BD7">
+        <v>7</v>
+      </c>
+      <c r="BE7">
+        <v>3</v>
+      </c>
+      <c r="BF7">
+        <v>9</v>
+      </c>
+      <c r="BG7">
+        <v>8</v>
+      </c>
+      <c r="BH7">
+        <v>5</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>8</v>
+      </c>
+      <c r="BK7">
+        <v>9</v>
+      </c>
+      <c r="BL7">
+        <v>3</v>
+      </c>
+      <c r="BM7">
+        <v>8</v>
+      </c>
+      <c r="BN7">
+        <v>2</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>3</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>6</v>
+      </c>
+      <c r="BT7">
+        <v>9</v>
+      </c>
+      <c r="BU7">
+        <v>2</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7">
+        <v>4</v>
+      </c>
+      <c r="BX7">
+        <v>5</v>
+      </c>
+      <c r="BY7">
+        <v>6</v>
+      </c>
+      <c r="BZ7">
+        <v>2</v>
+      </c>
+      <c r="CA7">
+        <v>6</v>
+      </c>
+      <c r="CB7">
+        <v>9</v>
+      </c>
+      <c r="CC7">
+        <v>1</v>
+      </c>
+      <c r="CD7">
+        <v>8</v>
+      </c>
+      <c r="CE7">
+        <v>8</v>
+      </c>
+      <c r="CF7">
+        <v>9</v>
+      </c>
+      <c r="CG7">
+        <v>9</v>
+      </c>
+      <c r="CH7">
+        <v>4</v>
+      </c>
+      <c r="CI7">
+        <v>9</v>
+      </c>
+      <c r="CJ7">
+        <v>6</v>
+      </c>
+      <c r="CK7">
+        <v>8</v>
+      </c>
+      <c r="CL7">
+        <v>2</v>
+      </c>
+      <c r="CM7">
+        <v>3</v>
+      </c>
+      <c r="CN7">
+        <v>6</v>
+      </c>
+      <c r="CO7">
+        <v>6</v>
+      </c>
+      <c r="CP7">
+        <v>5</v>
+      </c>
+      <c r="CQ7">
+        <v>5</v>
+      </c>
+      <c r="CR7">
+        <v>1</v>
+      </c>
+      <c r="CS7">
+        <v>3</v>
+      </c>
+      <c r="CT7">
+        <v>3</v>
+      </c>
+      <c r="CU7">
+        <v>9</v>
+      </c>
+      <c r="CV7">
+        <v>9</v>
+      </c>
+      <c r="CW7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1443.03</v>
+      </c>
+      <c r="C8">
+        <v>1715.07</v>
+      </c>
+      <c r="D8">
+        <v>621.97</v>
+      </c>
+      <c r="E8">
+        <v>1166.43</v>
+      </c>
+      <c r="F8">
+        <v>1003.2</v>
+      </c>
+      <c r="G8">
+        <v>1891.42</v>
+      </c>
+      <c r="H8">
+        <v>1755.78</v>
+      </c>
+      <c r="I8">
+        <v>1802.57</v>
+      </c>
+      <c r="J8">
+        <v>412.85</v>
+      </c>
+      <c r="K8">
+        <v>515.65</v>
+      </c>
+      <c r="L8">
+        <v>1453.31</v>
+      </c>
+      <c r="M8">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="N8">
+        <v>1377.06</v>
+      </c>
+      <c r="O8">
+        <v>857.77</v>
+      </c>
+      <c r="P8">
+        <v>131.52000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>834.8</v>
+      </c>
+      <c r="R8">
+        <v>534.25</v>
+      </c>
+      <c r="S8">
+        <v>1810.79</v>
+      </c>
+      <c r="T8">
+        <v>1786.76</v>
+      </c>
+      <c r="U8">
+        <v>1360.65</v>
+      </c>
+      <c r="V8">
+        <v>434.26</v>
+      </c>
+      <c r="W8">
+        <v>685.32</v>
+      </c>
+      <c r="X8">
+        <v>1959.9</v>
+      </c>
+      <c r="Y8">
+        <v>470.96</v>
+      </c>
+      <c r="Z8">
+        <v>1778.64</v>
+      </c>
+      <c r="AA8">
+        <v>1962.63</v>
+      </c>
+      <c r="AB8">
+        <v>1157.92</v>
+      </c>
+      <c r="AC8">
+        <v>366.16</v>
+      </c>
+      <c r="AD8">
+        <v>783.03</v>
+      </c>
+      <c r="AE8">
+        <v>1052.8800000000001</v>
+      </c>
+      <c r="AF8">
+        <v>152.47</v>
+      </c>
+      <c r="AG8">
+        <v>1222.58</v>
+      </c>
+      <c r="AH8">
+        <v>1672.95</v>
+      </c>
+      <c r="AI8">
+        <v>881.57</v>
+      </c>
+      <c r="AJ8">
+        <v>1610.85</v>
+      </c>
+      <c r="AK8">
+        <v>913.8</v>
+      </c>
+      <c r="AL8">
+        <v>1457.73</v>
+      </c>
+      <c r="AM8">
+        <v>190.66</v>
+      </c>
+      <c r="AN8">
+        <v>278.89999999999998</v>
+      </c>
+      <c r="AO8">
+        <v>429.08</v>
+      </c>
+      <c r="AP8">
+        <v>1055.96</v>
+      </c>
+      <c r="AQ8">
+        <v>1747.68</v>
+      </c>
+      <c r="AR8">
+        <v>1659.22</v>
+      </c>
+      <c r="AS8">
+        <v>174.03</v>
+      </c>
+      <c r="AT8">
+        <v>595.32000000000005</v>
+      </c>
+      <c r="AU8">
+        <v>1938.4</v>
+      </c>
+      <c r="AV8">
+        <v>883.97</v>
+      </c>
+      <c r="AW8">
+        <v>1526.66</v>
+      </c>
+      <c r="AX8">
+        <v>839.48</v>
+      </c>
+      <c r="AY8">
+        <v>1189.53</v>
+      </c>
+      <c r="AZ8">
+        <v>1584.46</v>
+      </c>
+      <c r="BA8">
+        <v>1500.37</v>
+      </c>
+      <c r="BB8">
+        <v>292.13</v>
+      </c>
+      <c r="BC8">
+        <v>1075.32</v>
+      </c>
+      <c r="BD8">
+        <v>1973.4</v>
+      </c>
+      <c r="BE8">
+        <v>311.27999999999997</v>
+      </c>
+      <c r="BF8">
+        <v>1514</v>
+      </c>
+      <c r="BG8">
+        <v>1103.9000000000001</v>
+      </c>
+      <c r="BH8">
+        <v>580.67999999999995</v>
+      </c>
+      <c r="BI8">
+        <v>1292.3599999999999</v>
+      </c>
+      <c r="BJ8">
+        <v>1278.25</v>
+      </c>
+      <c r="BK8">
+        <v>593.9</v>
+      </c>
+      <c r="BL8">
+        <v>1662.82</v>
+      </c>
+      <c r="BM8">
+        <v>1765.66</v>
+      </c>
+      <c r="BN8">
+        <v>1975.82</v>
+      </c>
+      <c r="BO8">
+        <v>1692.82</v>
+      </c>
+      <c r="BP8">
+        <v>1115.26</v>
+      </c>
+      <c r="BQ8">
+        <v>569.96</v>
+      </c>
+      <c r="BR8">
+        <v>1538.3</v>
+      </c>
+      <c r="BS8">
+        <v>1567.4</v>
+      </c>
+      <c r="BT8">
+        <v>1220.92</v>
+      </c>
+      <c r="BU8">
+        <v>766.12</v>
+      </c>
+      <c r="BV8">
+        <v>1588.94</v>
+      </c>
+      <c r="BW8">
+        <v>972.76</v>
+      </c>
+      <c r="BX8">
+        <v>760.09</v>
+      </c>
+      <c r="BY8">
+        <v>1425.57</v>
+      </c>
+      <c r="BZ8">
+        <v>1243.68</v>
+      </c>
+      <c r="CA8">
+        <v>268.52999999999997</v>
+      </c>
+      <c r="CB8">
+        <v>275.35000000000002</v>
+      </c>
+      <c r="CC8">
+        <v>626.07000000000005</v>
+      </c>
+      <c r="CD8">
+        <v>1020.59</v>
+      </c>
+      <c r="CE8">
+        <v>352.92</v>
+      </c>
+      <c r="CF8">
+        <v>1501.07</v>
+      </c>
+      <c r="CG8">
+        <v>1792</v>
+      </c>
+      <c r="CH8">
+        <v>1120.5</v>
+      </c>
+      <c r="CI8">
+        <v>741.15</v>
+      </c>
+      <c r="CJ8">
+        <v>1250.97</v>
+      </c>
+      <c r="CK8">
+        <v>1803.85</v>
+      </c>
+      <c r="CL8">
+        <v>1194.4000000000001</v>
+      </c>
+      <c r="CM8">
+        <v>1659.64</v>
+      </c>
+      <c r="CN8">
+        <v>1939.19</v>
+      </c>
+      <c r="CO8">
+        <v>1204.3499999999999</v>
+      </c>
+      <c r="CP8">
+        <v>220.41</v>
+      </c>
+      <c r="CQ8">
+        <v>105.15</v>
+      </c>
+      <c r="CR8">
+        <v>1716.38</v>
+      </c>
+      <c r="CS8">
+        <v>226.34</v>
+      </c>
+      <c r="CT8">
+        <v>412.11</v>
+      </c>
+      <c r="CU8">
+        <v>1397.67</v>
+      </c>
+      <c r="CV8">
+        <v>775.19</v>
+      </c>
+      <c r="CW8">
+        <v>1885.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <v>0.15</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.15</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.1</v>
+      </c>
+      <c r="Q9">
+        <v>0.05</v>
+      </c>
+      <c r="R9">
+        <v>0.05</v>
+      </c>
+      <c r="S9">
+        <v>0.1</v>
+      </c>
+      <c r="T9">
+        <v>0.15</v>
+      </c>
+      <c r="U9">
+        <v>0.2</v>
+      </c>
+      <c r="V9">
+        <v>0.15</v>
+      </c>
+      <c r="W9">
+        <v>0.15</v>
+      </c>
+      <c r="X9">
+        <v>0.1</v>
+      </c>
+      <c r="Y9">
+        <v>0.2</v>
+      </c>
+      <c r="Z9">
+        <v>0.15</v>
+      </c>
+      <c r="AA9">
+        <v>0.15</v>
+      </c>
+      <c r="AB9">
+        <v>0.05</v>
+      </c>
+      <c r="AC9">
+        <v>0.1</v>
+      </c>
+      <c r="AD9">
+        <v>0.2</v>
+      </c>
+      <c r="AE9">
+        <v>0.2</v>
+      </c>
+      <c r="AF9">
+        <v>0.05</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0.15</v>
+      </c>
+      <c r="AI9">
+        <v>0.1</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1</v>
+      </c>
+      <c r="AK9">
+        <v>0.15</v>
+      </c>
+      <c r="AL9">
+        <v>0.2</v>
+      </c>
+      <c r="AM9">
+        <v>0.05</v>
+      </c>
+      <c r="AN9">
+        <v>0.15</v>
+      </c>
+      <c r="AO9">
+        <v>0.2</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0.1</v>
+      </c>
+      <c r="AR9">
+        <v>0.15</v>
+      </c>
+      <c r="AS9">
+        <v>0.05</v>
+      </c>
+      <c r="AT9">
+        <v>0.15</v>
+      </c>
+      <c r="AU9">
+        <v>0.15</v>
+      </c>
+      <c r="AV9">
+        <v>0.05</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0.15</v>
+      </c>
+      <c r="AY9">
+        <v>0.2</v>
+      </c>
+      <c r="AZ9">
+        <v>0.2</v>
+      </c>
+      <c r="BA9">
+        <v>0.2</v>
+      </c>
+      <c r="BB9">
+        <v>0.2</v>
+      </c>
+      <c r="BC9">
+        <v>0.1</v>
+      </c>
+      <c r="BD9">
+        <v>0.15</v>
+      </c>
+      <c r="BE9">
+        <v>0.1</v>
+      </c>
+      <c r="BF9">
+        <v>0.1</v>
+      </c>
+      <c r="BG9">
+        <v>0.2</v>
+      </c>
+      <c r="BH9">
+        <v>0.1</v>
+      </c>
+      <c r="BI9">
+        <v>0.1</v>
+      </c>
+      <c r="BJ9">
+        <v>0.05</v>
+      </c>
+      <c r="BK9">
+        <v>0.1</v>
+      </c>
+      <c r="BL9">
+        <v>0.05</v>
+      </c>
+      <c r="BM9">
+        <v>0.1</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0.05</v>
+      </c>
+      <c r="BP9">
+        <v>0.2</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0.05</v>
+      </c>
+      <c r="BS9">
+        <v>0.1</v>
+      </c>
+      <c r="BT9">
+        <v>0.2</v>
+      </c>
+      <c r="BU9">
+        <v>0.05</v>
+      </c>
+      <c r="BV9">
+        <v>0.15</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0.1</v>
+      </c>
+      <c r="BY9">
+        <v>0.15</v>
+      </c>
+      <c r="BZ9">
+        <v>0.1</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0.05</v>
+      </c>
+      <c r="CE9">
+        <v>0.1</v>
+      </c>
+      <c r="CF9">
+        <v>0.15</v>
+      </c>
+      <c r="CG9">
+        <v>0.15</v>
+      </c>
+      <c r="CH9">
+        <v>0.05</v>
+      </c>
+      <c r="CI9">
+        <v>0.15</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0.1</v>
+      </c>
+      <c r="CL9">
+        <v>0.1</v>
+      </c>
+      <c r="CM9">
+        <v>0.05</v>
+      </c>
+      <c r="CN9">
+        <v>0.15</v>
+      </c>
+      <c r="CO9">
+        <v>0.1</v>
+      </c>
+      <c r="CP9">
+        <v>0.15</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0.15</v>
+      </c>
+      <c r="CS9">
+        <v>0.15</v>
+      </c>
+      <c r="CT9">
+        <v>0.2</v>
+      </c>
+      <c r="CU9">
+        <v>0.1</v>
+      </c>
+      <c r="CV9">
+        <v>0.05</v>
+      </c>
+      <c r="CW9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3896.18</v>
+      </c>
+      <c r="C10">
+        <v>10204.69</v>
+      </c>
+      <c r="D10">
+        <v>4478.1899999999996</v>
+      </c>
+      <c r="E10">
+        <v>5248.92</v>
+      </c>
+      <c r="F10">
+        <v>5617.94</v>
+      </c>
+      <c r="G10">
+        <v>6809.12</v>
+      </c>
+      <c r="H10">
+        <v>7462.04</v>
+      </c>
+      <c r="I10">
+        <v>12618.01</v>
+      </c>
+      <c r="J10">
+        <v>2600.9299999999998</v>
+      </c>
+      <c r="K10">
+        <v>3093.91</v>
+      </c>
+      <c r="L10">
+        <v>2325.3000000000002</v>
+      </c>
+      <c r="M10">
+        <v>976.78</v>
+      </c>
+      <c r="N10">
+        <v>8675.4599999999991</v>
+      </c>
+      <c r="O10">
+        <v>5146.6000000000004</v>
+      </c>
+      <c r="P10">
+        <v>473.46</v>
+      </c>
+      <c r="Q10">
+        <v>6344.46</v>
+      </c>
+      <c r="R10">
+        <v>1522.6</v>
+      </c>
+      <c r="S10">
+        <v>8148.57</v>
+      </c>
+      <c r="T10">
+        <v>12149.99</v>
+      </c>
+      <c r="U10">
+        <v>9796.7000000000007</v>
+      </c>
+      <c r="V10">
+        <v>3322.07</v>
+      </c>
+      <c r="W10">
+        <v>582.52</v>
+      </c>
+      <c r="X10">
+        <v>10583.44</v>
+      </c>
+      <c r="Y10">
+        <v>376.77</v>
+      </c>
+      <c r="Z10">
+        <v>7559.21</v>
+      </c>
+      <c r="AA10">
+        <v>5004.71</v>
+      </c>
+      <c r="AB10">
+        <v>2200.0500000000002</v>
+      </c>
+      <c r="AC10">
+        <v>2306.81</v>
+      </c>
+      <c r="AD10">
+        <v>3758.56</v>
+      </c>
+      <c r="AE10">
+        <v>5896.13</v>
+      </c>
+      <c r="AF10">
+        <v>1013.94</v>
+      </c>
+      <c r="AG10">
+        <v>7335.5</v>
+      </c>
+      <c r="AH10">
+        <v>1422.01</v>
+      </c>
+      <c r="AI10">
+        <v>3173.66</v>
+      </c>
+      <c r="AJ10">
+        <v>4349.3100000000004</v>
+      </c>
+      <c r="AK10">
+        <v>5437.1</v>
+      </c>
+      <c r="AL10">
+        <v>6997.11</v>
+      </c>
+      <c r="AM10">
+        <v>1267.8900000000001</v>
+      </c>
+      <c r="AN10">
+        <v>1185.32</v>
+      </c>
+      <c r="AO10">
+        <v>1373.07</v>
+      </c>
+      <c r="AP10">
+        <v>3167.88</v>
+      </c>
+      <c r="AQ10">
+        <v>1572.91</v>
+      </c>
+      <c r="AR10">
+        <v>4231</v>
+      </c>
+      <c r="AS10">
+        <v>330.66</v>
+      </c>
+      <c r="AT10">
+        <v>1012.04</v>
+      </c>
+      <c r="AU10">
+        <v>8238.2099999999991</v>
+      </c>
+      <c r="AV10">
+        <v>2519.3200000000002</v>
+      </c>
+      <c r="AW10">
+        <v>10686.59</v>
+      </c>
+      <c r="AX10">
+        <v>2140.6799999999998</v>
+      </c>
+      <c r="AY10">
+        <v>3806.5</v>
+      </c>
+      <c r="AZ10">
+        <v>8872.99</v>
+      </c>
+      <c r="BA10">
+        <v>6001.47</v>
+      </c>
+      <c r="BB10">
+        <v>233.71</v>
+      </c>
+      <c r="BC10">
+        <v>4838.9399999999996</v>
+      </c>
+      <c r="BD10">
+        <v>11741.74</v>
+      </c>
+      <c r="BE10">
+        <v>840.44</v>
+      </c>
+      <c r="BF10">
+        <v>12263.42</v>
+      </c>
+      <c r="BG10">
+        <v>7064.98</v>
+      </c>
+      <c r="BH10">
+        <v>2613.0700000000002</v>
+      </c>
+      <c r="BI10">
+        <v>1163.1199999999999</v>
+      </c>
+      <c r="BJ10">
+        <v>9714.7099999999991</v>
+      </c>
+      <c r="BK10">
+        <v>4810.63</v>
+      </c>
+      <c r="BL10">
+        <v>4739.04</v>
+      </c>
+      <c r="BM10">
+        <v>12712.73</v>
+      </c>
+      <c r="BN10">
+        <v>3951.65</v>
+      </c>
+      <c r="BO10">
+        <v>1608.18</v>
+      </c>
+      <c r="BP10">
+        <v>892.21</v>
+      </c>
+      <c r="BQ10">
+        <v>1709.88</v>
+      </c>
+      <c r="BR10">
+        <v>1461.38</v>
+      </c>
+      <c r="BS10">
+        <v>8463.99</v>
+      </c>
+      <c r="BT10">
+        <v>8790.6</v>
+      </c>
+      <c r="BU10">
+        <v>1455.62</v>
+      </c>
+      <c r="BV10">
+        <v>1350.6</v>
+      </c>
+      <c r="BW10">
+        <v>3891.04</v>
+      </c>
+      <c r="BX10">
+        <v>3420.38</v>
+      </c>
+      <c r="BY10">
+        <v>7270.4</v>
+      </c>
+      <c r="BZ10">
+        <v>2238.62</v>
+      </c>
+      <c r="CA10">
+        <v>1611.21</v>
+      </c>
+      <c r="CB10">
+        <v>2478.17</v>
+      </c>
+      <c r="CC10">
+        <v>626.07000000000005</v>
+      </c>
+      <c r="CD10">
+        <v>7756.51</v>
+      </c>
+      <c r="CE10">
+        <v>2541.04</v>
+      </c>
+      <c r="CF10">
+        <v>11483.18</v>
+      </c>
+      <c r="CG10">
+        <v>13708.81</v>
+      </c>
+      <c r="CH10">
+        <v>4257.91</v>
+      </c>
+      <c r="CI10">
+        <v>5669.79</v>
+      </c>
+      <c r="CJ10">
+        <v>7505.83</v>
+      </c>
+      <c r="CK10">
+        <v>12987.75</v>
+      </c>
+      <c r="CL10">
+        <v>2149.91</v>
+      </c>
+      <c r="CM10">
+        <v>4729.96</v>
+      </c>
+      <c r="CN10">
+        <v>9889.86</v>
+      </c>
+      <c r="CO10">
+        <v>6503.5</v>
+      </c>
+      <c r="CP10">
+        <v>936.75</v>
+      </c>
+      <c r="CQ10">
+        <v>525.75</v>
+      </c>
+      <c r="CR10">
+        <v>1458.92</v>
+      </c>
+      <c r="CS10">
+        <v>577.16999999999996</v>
+      </c>
+      <c r="CT10">
+        <v>989.05</v>
+      </c>
+      <c r="CU10">
+        <v>11321.09</v>
+      </c>
+      <c r="CV10">
+        <v>6627.86</v>
+      </c>
+      <c r="CW10">
+        <v>10182.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>964.48</v>
+      </c>
+      <c r="C11">
+        <v>1354.41</v>
+      </c>
+      <c r="D11">
+        <v>752.58</v>
+      </c>
+      <c r="E11">
+        <v>948.39</v>
+      </c>
+      <c r="F11">
+        <v>995.18</v>
+      </c>
+      <c r="G11">
+        <v>1523.17</v>
+      </c>
+      <c r="H11">
+        <v>780.61</v>
+      </c>
+      <c r="I11">
+        <v>1489.34</v>
+      </c>
+      <c r="J11">
+        <v>401.46</v>
+      </c>
+      <c r="K11">
+        <v>467.05</v>
+      </c>
+      <c r="L11">
+        <v>281.85000000000002</v>
+      </c>
+      <c r="M11">
+        <v>203.74</v>
+      </c>
+      <c r="N11">
+        <v>1235.5</v>
+      </c>
+      <c r="O11">
+        <v>451.25</v>
+      </c>
+      <c r="P11">
+        <v>119.49</v>
+      </c>
+      <c r="Q11">
+        <v>1645.93</v>
+      </c>
+      <c r="R11">
+        <v>449.99</v>
+      </c>
+      <c r="S11">
+        <v>791.85</v>
+      </c>
+      <c r="T11">
+        <v>863.07</v>
+      </c>
+      <c r="U11">
+        <v>1185.21</v>
+      </c>
+      <c r="V11">
+        <v>363.14</v>
+      </c>
+      <c r="W11">
+        <v>103.22</v>
+      </c>
+      <c r="X11">
+        <v>2889.4</v>
+      </c>
+      <c r="Y11">
+        <v>65.86</v>
+      </c>
+      <c r="Z11">
+        <v>407.17</v>
+      </c>
+      <c r="AA11">
+        <v>618.64</v>
+      </c>
+      <c r="AB11">
+        <v>621.52</v>
+      </c>
+      <c r="AC11">
+        <v>285.63</v>
+      </c>
+      <c r="AD11">
+        <v>466.54</v>
+      </c>
+      <c r="AE11">
+        <v>581.16999999999996</v>
+      </c>
+      <c r="AF11">
+        <v>74.52</v>
+      </c>
+      <c r="AG11">
+        <v>435.27</v>
+      </c>
+      <c r="AH11">
+        <v>147.83000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>664.43</v>
+      </c>
+      <c r="AJ11">
+        <v>694.77</v>
+      </c>
+      <c r="AK11">
+        <v>827.73</v>
+      </c>
+      <c r="AL11">
+        <v>839.54</v>
+      </c>
+      <c r="AM11">
+        <v>176.23</v>
+      </c>
+      <c r="AN11">
+        <v>111.22</v>
+      </c>
+      <c r="AO11">
+        <v>205.45</v>
+      </c>
+      <c r="AP11">
+        <v>585.55999999999995</v>
+      </c>
+      <c r="AQ11">
+        <v>393.6</v>
+      </c>
+      <c r="AR11">
+        <v>619.95000000000005</v>
+      </c>
+      <c r="AS11">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="AT11">
+        <v>225.91</v>
+      </c>
+      <c r="AU11">
+        <v>777.36</v>
+      </c>
+      <c r="AV11">
+        <v>283.43</v>
+      </c>
+      <c r="AW11">
+        <v>1170.81</v>
+      </c>
+      <c r="AX11">
+        <v>620.02</v>
+      </c>
+      <c r="AY11">
+        <v>277.58999999999997</v>
+      </c>
+      <c r="AZ11">
+        <v>2508.6799999999998</v>
+      </c>
+      <c r="BA11">
+        <v>826.58</v>
+      </c>
+      <c r="BB11">
+        <v>24.69</v>
+      </c>
+      <c r="BC11">
+        <v>945.17</v>
+      </c>
+      <c r="BD11">
+        <v>1615.13</v>
+      </c>
+      <c r="BE11">
+        <v>95.32</v>
+      </c>
+      <c r="BF11">
+        <v>2401.69</v>
+      </c>
+      <c r="BG11">
+        <v>2054.54</v>
+      </c>
+      <c r="BH11">
+        <v>763.87</v>
+      </c>
+      <c r="BI11">
+        <v>320.2</v>
+      </c>
+      <c r="BJ11">
+        <v>942.62</v>
+      </c>
+      <c r="BK11">
+        <v>1080.18</v>
+      </c>
+      <c r="BL11">
+        <v>730.57</v>
+      </c>
+      <c r="BM11">
+        <v>779.35</v>
+      </c>
+      <c r="BN11">
+        <v>569.77</v>
+      </c>
+      <c r="BO11">
+        <v>95.21</v>
+      </c>
+      <c r="BP11">
+        <v>266.91000000000003</v>
+      </c>
+      <c r="BQ11">
+        <v>140.71</v>
+      </c>
+      <c r="BR11">
+        <v>203.92</v>
+      </c>
+      <c r="BS11">
+        <v>1074.45</v>
+      </c>
+      <c r="BT11">
+        <v>1802.75</v>
+      </c>
+      <c r="BU11">
+        <v>304.45999999999998</v>
+      </c>
+      <c r="BV11">
+        <v>168.14</v>
+      </c>
+      <c r="BW11">
+        <v>673.26</v>
+      </c>
+      <c r="BX11">
+        <v>666.68</v>
+      </c>
+      <c r="BY11">
+        <v>694.11</v>
+      </c>
+      <c r="BZ11">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="CA11">
+        <v>295.83</v>
+      </c>
+      <c r="CB11">
+        <v>550.02</v>
+      </c>
+      <c r="CC11">
+        <v>44.53</v>
+      </c>
+      <c r="CD11">
+        <v>1861.48</v>
+      </c>
+      <c r="CE11">
+        <v>695.74</v>
+      </c>
+      <c r="CF11">
+        <v>631.78</v>
+      </c>
+      <c r="CG11">
+        <v>2309.83</v>
+      </c>
+      <c r="CH11">
+        <v>806.6</v>
+      </c>
+      <c r="CI11">
+        <v>1199.04</v>
+      </c>
+      <c r="CJ11">
+        <v>389.43</v>
+      </c>
+      <c r="CK11">
+        <v>2352.44</v>
+      </c>
+      <c r="CL11">
+        <v>572.69000000000005</v>
+      </c>
+      <c r="CM11">
+        <v>894.87</v>
+      </c>
+      <c r="CN11">
+        <v>1546.37</v>
+      </c>
+      <c r="CO11">
+        <v>1840.51</v>
+      </c>
+      <c r="CP11">
+        <v>94.08</v>
+      </c>
+      <c r="CQ11">
+        <v>104.58</v>
+      </c>
+      <c r="CR11">
+        <v>424.92</v>
+      </c>
+      <c r="CS11">
+        <v>150.33000000000001</v>
+      </c>
+      <c r="CT11">
+        <v>107.73</v>
+      </c>
+      <c r="CU11">
+        <v>2332.4299999999998</v>
+      </c>
+      <c r="CV11">
+        <v>1232.04</v>
+      </c>
+      <c r="CW11">
+        <v>1361.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:101">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>23</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>30</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>34</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>23</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>17</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>34</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>30</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>30</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>23</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>34</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>17</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>23</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>17</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>17</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>34</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>30</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>17</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>17</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:101">
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:101">
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>HLOOKUP(E16,A1:CW12,3,1)</f>
+        <v>Karan</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>